--- a/veh and fuel mapping.xlsx
+++ b/veh and fuel mapping.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="0" windowWidth="21465" windowHeight="12900" activeTab="1"/>
+    <workbookView xWindow="9765" yWindow="0" windowWidth="21465" windowHeight="12900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="veh type mapping" sheetId="1" r:id="rId1"/>
     <sheet name="Aimsun veh mapping" sheetId="3" r:id="rId2"/>
-    <sheet name="fuel type mapping" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="fuel type mapping" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="98">
   <si>
     <t>Passenger Vehicles</t>
   </si>
@@ -281,13 +282,52 @@
   </si>
   <si>
     <t>MOVES Veh ID</t>
+  </si>
+  <si>
+    <t>MOVES Fuel Type</t>
+  </si>
+  <si>
+    <t>RMS Motive Power</t>
+  </si>
+  <si>
+    <t>MOVES Fuel Type ID</t>
+  </si>
+  <si>
+    <t>fuelSubtypeID</t>
+  </si>
+  <si>
+    <t>fuelSubtypeDesc</t>
+  </si>
+  <si>
+    <t>FuelFormulationID</t>
+  </si>
+  <si>
+    <t>95-97 RON</t>
+  </si>
+  <si>
+    <t>98+ RON</t>
+  </si>
+  <si>
+    <t>&lt;95 RON</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>Other products</t>
+  </si>
+  <si>
+    <t>APS fuel type</t>
+  </si>
+  <si>
+    <t>FuelTypeID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +342,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,8 +370,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -339,17 +399,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1062,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,116 +1295,179 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R22"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="8">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="8">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1002</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1">
-        <v>0.95</v>
-      </c>
-      <c r="M1">
-        <v>1</v>
-      </c>
-      <c r="N1">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="O1">
-        <v>1</v>
-      </c>
-      <c r="P1">
-        <v>3.8E-3</v>
-      </c>
-      <c r="Q1">
-        <v>43.488</v>
-      </c>
-      <c r="R1">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2">
-        <v>0.95</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>3.8E-3</v>
-      </c>
-      <c r="Q2">
-        <v>42.357999999999997</v>
-      </c>
-      <c r="R2">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
+      <c r="D3" s="2">
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1268,16 +1476,16 @@
         <v>56</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L3">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="M3">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>1.9599999999999999E-2</v>
@@ -1289,21 +1497,21 @@
         <v>3.8E-3</v>
       </c>
       <c r="Q3">
-        <v>41.762</v>
+        <v>43.488</v>
       </c>
       <c r="R3">
         <v>2839</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1312,13 +1520,13 @@
         <v>56</v>
       </c>
       <c r="J4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L4">
-        <v>0.94499999999999995</v>
+        <v>0.95</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -1333,21 +1541,21 @@
         <v>3.8E-3</v>
       </c>
       <c r="Q4">
-        <v>42.1</v>
+        <v>42.357999999999997</v>
       </c>
       <c r="R4">
         <v>2839</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5">
-        <v>90</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1356,16 +1564,16 @@
         <v>56</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L5">
-        <v>0.94499999999999995</v>
+        <v>0.94</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="N5">
         <v>1.9599999999999999E-2</v>
@@ -1377,21 +1585,21 @@
         <v>3.8E-3</v>
       </c>
       <c r="Q5">
-        <v>42.604999999999997</v>
+        <v>41.762</v>
       </c>
       <c r="R5">
         <v>2839</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1400,16 +1608,16 @@
         <v>56</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L6">
-        <v>0.94</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="M6">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>1.9599999999999999E-2</v>
@@ -1421,21 +1629,21 @@
         <v>3.8E-3</v>
       </c>
       <c r="Q6">
-        <v>40.92</v>
+        <v>42.1</v>
       </c>
       <c r="R6">
         <v>2839</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1444,19 +1652,19 @@
         <v>56</v>
       </c>
       <c r="J7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L7">
-        <v>0.9</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="M7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1.9400000000000001E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -1465,109 +1673,109 @@
         <v>3.8E-3</v>
       </c>
       <c r="Q7">
-        <v>40.076999999999998</v>
+        <v>42.604999999999997</v>
       </c>
       <c r="R7">
         <v>2839</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8">
+        <v>0.94</v>
+      </c>
+      <c r="M8">
+        <v>0.94</v>
+      </c>
+      <c r="N8">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>3.8E-3</v>
+      </c>
+      <c r="Q8">
+        <v>40.92</v>
+      </c>
+      <c r="R8">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9">
+        <v>0.9</v>
+      </c>
+      <c r="M9">
+        <v>0.9</v>
+      </c>
+      <c r="N9">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>3.8E-3</v>
+      </c>
+      <c r="Q9">
+        <v>40.076999999999998</v>
+      </c>
+      <c r="R9">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H8">
+      <c r="D10" s="2">
         <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>2.0190400000000001E-2</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="Q8">
-        <v>43.716999999999999</v>
-      </c>
-      <c r="R8">
-        <v>3167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9">
-        <v>0.81</v>
-      </c>
-      <c r="M9">
-        <v>0.81</v>
-      </c>
-      <c r="N9">
-        <v>2.00894E-2</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="Q9">
-        <v>43.061</v>
-      </c>
-      <c r="R9">
-        <v>3167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>65</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1576,19 +1784,19 @@
         <v>64</v>
       </c>
       <c r="J10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10">
-        <v>2.06952E-2</v>
+        <v>2.0190400000000001E-2</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -1597,153 +1805,153 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="Q10">
-        <v>43.247</v>
+        <v>43.716999999999999</v>
       </c>
       <c r="R10">
         <v>3167</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11">
+        <v>0.81</v>
+      </c>
+      <c r="M11">
+        <v>0.81</v>
+      </c>
+      <c r="N11">
+        <v>2.00894E-2</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="Q11">
+        <v>43.061</v>
+      </c>
+      <c r="R11">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>2.06952E-2</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="Q12">
+        <v>43.247</v>
+      </c>
+      <c r="R12">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B11">
+      <c r="C13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="K13" t="s">
         <v>68</v>
       </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11">
-        <v>30</v>
-      </c>
-      <c r="K11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11">
+      <c r="L13">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>1.61E-2</v>
       </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
         <v>0</v>
       </c>
-      <c r="Q11">
+      <c r="Q13">
         <v>48.631999999999998</v>
       </c>
-      <c r="R11">
+      <c r="R13">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12">
-        <v>50</v>
-      </c>
-      <c r="K12" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12">
-        <v>0.26</v>
-      </c>
-      <c r="M12">
-        <v>0.26</v>
-      </c>
-      <c r="N12">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>3.8E-3</v>
-      </c>
-      <c r="Q12">
-        <v>26.591999999999999</v>
-      </c>
-      <c r="R12">
-        <v>2944</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13">
-        <v>51</v>
-      </c>
-      <c r="K13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13">
-        <v>0.26</v>
-      </c>
-      <c r="M13">
-        <v>0.26</v>
-      </c>
-      <c r="N13">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>3.8E-3</v>
-      </c>
-      <c r="Q13">
-        <v>29.12</v>
-      </c>
-      <c r="R13">
-        <v>2944</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
+      <c r="D14" s="2">
+        <v>1</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -1752,16 +1960,16 @@
         <v>69</v>
       </c>
       <c r="J14">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L14">
-        <v>0.46</v>
+        <v>0.26</v>
       </c>
       <c r="M14">
-        <v>0.46</v>
+        <v>0.26</v>
       </c>
       <c r="N14">
         <v>1.9400000000000001E-2</v>
@@ -1773,122 +1981,223 @@
         <v>3.8E-3</v>
       </c>
       <c r="Q14">
-        <v>31.649000000000001</v>
+        <v>26.591999999999999</v>
       </c>
       <c r="R14">
         <v>2944</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15">
+        <v>51</v>
+      </c>
+      <c r="K15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15">
+        <v>0.26</v>
+      </c>
+      <c r="M15">
+        <v>0.26</v>
+      </c>
+      <c r="N15">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>3.8E-3</v>
+      </c>
+      <c r="Q15">
+        <v>29.12</v>
+      </c>
+      <c r="R15">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16">
+        <v>52</v>
+      </c>
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16">
+        <v>0.46</v>
+      </c>
+      <c r="M16">
+        <v>0.46</v>
+      </c>
+      <c r="N16">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>3.8E-3</v>
+      </c>
+      <c r="Q16">
+        <v>31.649000000000001</v>
+      </c>
+      <c r="R16">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H15">
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>9</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I17" t="s">
         <v>38</v>
       </c>
-      <c r="J15">
+      <c r="J17">
         <v>90</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K17" t="s">
         <v>38</v>
       </c>
-      <c r="L15">
+      <c r="L17">
         <v>0.02</v>
       </c>
-      <c r="M15">
+      <c r="M17">
         <v>0.87</v>
       </c>
-      <c r="N15">
+      <c r="N17">
         <v>0</v>
       </c>
-      <c r="O15">
+      <c r="O17">
         <v>0</v>
       </c>
-      <c r="P15">
+      <c r="P17">
         <v>0</v>
       </c>
-      <c r="Q15">
+      <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R15">
+      <c r="R17">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C19" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C20" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B19">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C21" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C22" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
         <v>55</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>